--- a/data/outputs/OR_altmetric/46.xlsx
+++ b/data/outputs/OR_altmetric/46.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE33"/>
+  <dimension ref="A1:CF33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1537,6 +1548,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2043,6 +2060,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2547,6 +2570,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3047,6 +3076,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3304,6 +3336,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3555,6 +3590,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3798,6 +3836,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4047,6 +4088,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4304,6 +4348,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4559,6 +4606,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,6 +4852,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5055,6 +5108,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5313,6 +5369,9 @@
       </c>
       <c r="CE19" t="n">
         <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -5549,6 +5608,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5790,6 +5852,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6027,6 +6092,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6268,6 +6336,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6509,6 +6580,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6758,6 +6832,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7011,6 +7088,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7260,6 +7340,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7517,6 +7600,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7762,6 +7848,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8011,6 +8100,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8260,6 +8352,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8513,6 +8608,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8762,6 +8860,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
